--- a/biology/Botanique/Louis_Emberger/Louis_Emberger.xlsx
+++ b/biology/Botanique/Louis_Emberger/Louis_Emberger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Emberger, né à Thann le 23 janvier 1897 et mort à Saint-Sulpice en novembre 1969, est un botaniste phytogéographe français[2] connu pour sa classification des bioclimats méditerranéens selon l'indice climatique d'Emberger.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Emberger, né à Thann le 23 janvier 1897 et mort à Saint-Sulpice en novembre 1969, est un botaniste phytogéographe français connu pour sa classification des bioclimats méditerranéens selon l'indice climatique d'Emberger.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Emberger est né à Thann en Alsace occupée[3]. C'est dans la plaine d'Alsace et dans les Vosges qu'il apprit à connaître les plantes et à les aimer. À 18 ans, pour échapper à la réquisition allemande, il quitte la maison familiale et s'installe à Lyon où il entreprend des études de Pharmacie (dès 1917) et une licence en sciences naturelles (qu'il obtient en 1918). Il présentera une thèse de doctorat sous la direction du professeur Guilliermond. Sa première fonction universitaire fut celle de Préparateur en Chimie organique à la faculté de Médecine et de Pharmacie. Il publiera sa première Note en 1919 dans le Bulletin de la Société Botanique de France compte-rendu d'une excursion en Grande Chartreuse. Il est pharmacien en 1920 et à la fin de cette année, il a publié six notes préliminaires, présentées à l'Académie des Sciences par Gaston Bonnier.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Emberger est né à Thann en Alsace occupée. C'est dans la plaine d'Alsace et dans les Vosges qu'il apprit à connaître les plantes et à les aimer. À 18 ans, pour échapper à la réquisition allemande, il quitte la maison familiale et s'installe à Lyon où il entreprend des études de Pharmacie (dès 1917) et une licence en sciences naturelles (qu'il obtient en 1918). Il présentera une thèse de doctorat sous la direction du professeur Guilliermond. Sa première fonction universitaire fut celle de Préparateur en Chimie organique à la faculté de Médecine et de Pharmacie. Il publiera sa première Note en 1919 dans le Bulletin de la Société Botanique de France compte-rendu d'une excursion en Grande Chartreuse. Il est pharmacien en 1920 et à la fin de cette année, il a publié six notes préliminaires, présentées à l'Académie des Sciences par Gaston Bonnier.
 En 1921, il est appelé comme chargé de cours à la faculté de pharmacie de l'université de Montpellier. Cinq ans plus tard, il est nommé chef du service botanique de l'Institut scientifique chérifien au Maroc où il restera une dizaine d'années (1926-1936). À son retour en France, il devient brièvement professeur à la faculté des sciences de Clermont-Ferrand, avant de revenir à Montpellier, où il prend la succession de son beau-père, Charles Flahault à la tête de l'Institut de botanique, jusqu'à son décès en 1969, dans sa maison de Savoie.
 </t>
         </is>
@@ -543,19 +557,11 @@
           <t>Son œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'œuvre de Louis Emberger se répartit en quatre grands domaines scientifiques[4].  Cette œuvre est étayée par une bibliographie considérable.
-L'œuvre cytologique
-Cette œuvre concerne les fougères, les prêles, les sélaginelles et les lycopodes.
-La Géographie botanique, floristique et écologie
-Cette partie concerne la végétation du bassin méditerranéen en général et plus particulièrement dans le Grand Atlas oriental. Elle concerne également la classification des groupements végétaux, la répartition géographique au Maroc de l'Alfa (Stipa tenacissima) ainsi que la végétation et la flore du Maroc.
-Elle comporte aussi les étages de végétation des montagnes marocaines, la définition phytogéographique du climat désertique, la place de l'arganier et les étages de végétation du Maroc. À ces travaux sur la flore marocaine (plaines, collines, montagnes) s'ajoutent ceux sur les associations végétales des de la forêt dense équatoriale et qui serviront de base à une classification biogéographique des climats. Il a été ensuite amené à comparer avec l'Australie ayant des caractéristiques méditerranéennes, homologue de la zone méditerranéenne européenne. Il est difficile de tout résumer ici.
-La conclusion de ce travail est contenu dans les considérations bioclimatologiques sur le bioclimat méditerranéen, les subdivisions de ce bioclimat et la classification générale des climats du point de vue biogéographique. Le quotient d'Emberger intégrera pluies et températures en fonction des observations faites sur la végétation des stations climatiques.
-La morphologie comparée et la phylogénèse
-L'œuvre systématique
-Élèves et enseignement
-En 1967-1968, Louis Emberger dirige les enseignements du Diplôme d'Études Approfondies de Biologie végétale option Écologie. Cinq étudiants feront partie de cette promotion. Il prendra ensuite sa retraite. Il était assisté par Charles Sauvage.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'œuvre de Louis Emberger se répartit en quatre grands domaines scientifiques.  Cette œuvre est étayée par une bibliographie considérable.
 </t>
         </is>
       </c>
@@ -581,12 +587,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Décorations</t>
+          <t>Son œuvre</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ordre du Ouissam Alaouite[5].</t>
+          <t>L'œuvre cytologique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette œuvre concerne les fougères, les prêles, les sélaginelles et les lycopodes.
+</t>
         </is>
       </c>
     </row>
@@ -611,10 +624,120 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Son œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La Géographie botanique, floristique et écologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette partie concerne la végétation du bassin méditerranéen en général et plus particulièrement dans le Grand Atlas oriental. Elle concerne également la classification des groupements végétaux, la répartition géographique au Maroc de l'Alfa (Stipa tenacissima) ainsi que la végétation et la flore du Maroc.
+Elle comporte aussi les étages de végétation des montagnes marocaines, la définition phytogéographique du climat désertique, la place de l'arganier et les étages de végétation du Maroc. À ces travaux sur la flore marocaine (plaines, collines, montagnes) s'ajoutent ceux sur les associations végétales des de la forêt dense équatoriale et qui serviront de base à une classification biogéographique des climats. Il a été ensuite amené à comparer avec l'Australie ayant des caractéristiques méditerranéennes, homologue de la zone méditerranéenne européenne. Il est difficile de tout résumer ici.
+La conclusion de ce travail est contenu dans les considérations bioclimatologiques sur le bioclimat méditerranéen, les subdivisions de ce bioclimat et la classification générale des climats du point de vue biogéographique. Le quotient d'Emberger intégrera pluies et températures en fonction des observations faites sur la végétation des stations climatiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Louis_Emberger</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Emberger</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Son œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Élèves et enseignement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1967-1968, Louis Emberger dirige les enseignements du Diplôme d'Études Approfondies de Biologie végétale option Écologie. Cinq étudiants feront partie de cette promotion. Il prendra ensuite sa retraite. Il était assisté par Charles Sauvage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Louis_Emberger</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Emberger</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ordre du Ouissam Alaouite.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Louis_Emberger</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Emberger</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Recherches sur l'origine et l'évolution des plastides chez les ptéridophytes : contribution à l'étude de la cellule végétale, sous la direction d'Alexandre Guilliermond, Paris, Gaston Doin, 1921.
 Aperçu sur la végétation de l'embouchure du Bou Regreg, avec R.-P. Régnier, Rabat, Institut scientifique chérifien, 1926.
